--- a/input_data/admin_data/BRA/ptot_2006.xlsx
+++ b/input_data/admin_data/BRA/ptot_2006.xlsx
@@ -142,7 +142,7 @@
         <v>8651.2982229594654</v>
       </c>
       <c r="D3" s="1">
-        <v>0.87465286254882812</v>
+        <v>0.87465286254882813</v>
       </c>
       <c r="E3" s="1">
         <v>117123344</v>
